--- a/setup/csvサンプル生成用.xlsx
+++ b/setup/csvサンプル生成用.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="STORE_INFO" sheetId="1" r:id="rId1"/>
     <sheet name="MENU_INFO" sheetId="2" r:id="rId2"/>
     <sheet name="CHECK_INFO" sheetId="3" r:id="rId3"/>
+    <sheet name="CHECK_DETAIL" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="141">
   <si>
     <t>STORE_ID</t>
     <phoneticPr fontId="1"/>
@@ -362,6 +363,255 @@
   </si>
   <si>
     <t>COMMENT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>1008</t>
+  </si>
+  <si>
+    <t>1009</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>1001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CHECK_DETAIL_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STORE_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CHECK_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MENU_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MENU_QTY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>REGIST_DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2017/08/01 10:00:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>108</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2322</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2500</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3456</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>270</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2160</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>550</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>550</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>350</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>750</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>1004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1006</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1007</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1008</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1009</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1009</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2016</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2017</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1010</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -426,7 +676,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -468,7 +718,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -503,7 +753,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -718,18 +968,18 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="19.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -752,7 +1002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -775,7 +1025,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -795,7 +1045,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -818,7 +1068,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -853,21 +1103,21 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F3" sqref="A1:G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="19.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -890,7 +1140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -913,7 +1163,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -936,7 +1186,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -959,7 +1209,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
@@ -982,7 +1232,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,7 +1255,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,7 +1278,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1051,7 +1301,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -1074,7 +1324,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -1097,7 +1347,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -1120,7 +1370,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1143,7 +1393,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,7 +1416,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1189,7 +1439,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -1212,7 +1462,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -1235,7 +1485,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -1258,7 +1508,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -1281,7 +1531,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -1304,7 +1554,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -1327,7 +1577,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -1350,7 +1600,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -1373,7 +1623,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
@@ -1404,25 +1654,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="7" width="19.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
@@ -1443,10 +1692,650 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="19.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>